--- a/Base/Teams/Panthers/Distributions.xlsx
+++ b/Base/Teams/Panthers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(1.161805220542087, 0.6235407476784035, 1.5802076920566814, 4.09284988203696)</t>
-  </si>
-  <si>
-    <t>NIG(1.778944594693273, 1.3088344850019178, 3.4301055116449506, 6.293524626459212)</t>
-  </si>
-  <si>
-    <t>JSU(-1.0644162841595248, 1.113256740238545, 0.08894496162885215, 2.6242958813326203)</t>
-  </si>
-  <si>
-    <t>NIG(0.9482318043584939, 0.6407911589441546, 4.549726807414581, 6.05447261705139)</t>
+    <t>NIG(1.1990050145605002, 0.6443823513378211, 1.498362681117483, 4.164024394887456)</t>
+  </si>
+  <si>
+    <t>NIG(2.0059339212280443, 1.4612409524903813, 3.367489332121533, 6.661779039357299)</t>
+  </si>
+  <si>
+    <t>JSU(-1.1406037024274975, 1.1828568557303552, -0.09554257632741492, 2.8120871393497078)</t>
+  </si>
+  <si>
+    <t>NIG(1.031196866021805, 0.705153327066756, 4.322790061325168, 6.17863226520436)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Panthers/Distributions.xlsx
+++ b/Base/Teams/Panthers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(1.1990050145605002, 0.6443823513378211, 1.498362681117483, 4.164024394887456)</t>
-  </si>
-  <si>
-    <t>NIG(2.0059339212280443, 1.4612409524903813, 3.367489332121533, 6.661779039357299)</t>
-  </si>
-  <si>
-    <t>JSU(-1.1406037024274975, 1.1828568557303552, -0.09554257632741492, 2.8120871393497078)</t>
-  </si>
-  <si>
-    <t>NIG(1.031196866021805, 0.705153327066756, 4.322790061325168, 6.17863226520436)</t>
+    <t>NIG(1.0344335891558327, 0.6006552548631346, 1.4747487308486456, 3.8848691198726564)</t>
+  </si>
+  <si>
+    <t>JSU(-1.3562912473480124, 1.4174043453827725, 2.220043201918458, 5.7391831239407605)</t>
+  </si>
+  <si>
+    <t>JSU(-1.1197051447560884, 1.1352471193249505, -0.06373850907726558, 2.6641709470701467)</t>
+  </si>
+  <si>
+    <t>JSU(-0.9030508801671311, 1.1654564947743757, 3.560944833938579, 5.512241708039925)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Panthers/Distributions.xlsx
+++ b/Base/Teams/Panthers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(1.0344335891558327, 0.6006552548631346, 1.4747487308486456, 3.8848691198726564)</t>
-  </si>
-  <si>
-    <t>JSU(-1.3562912473480124, 1.4174043453827725, 2.220043201918458, 5.7391831239407605)</t>
-  </si>
-  <si>
-    <t>JSU(-1.1197051447560884, 1.1352471193249505, -0.06373850907726558, 2.6641709470701467)</t>
-  </si>
-  <si>
-    <t>JSU(-0.9030508801671311, 1.1654564947743757, 3.560944833938579, 5.512241708039925)</t>
+    <t>NIG(1.0825277216380726, 0.6597082740795139, 1.2527239139813011, 3.823068574113524)</t>
+  </si>
+  <si>
+    <t>NIG(1.584202046748575, 1.126339433689313, 3.9808944726008635, 6.2236109243199795)</t>
+  </si>
+  <si>
+    <t>JSU(-1.1100157718573849, 1.1378829585130164, -0.18288977667922973, 2.717279583370045)</t>
+  </si>
+  <si>
+    <t>NIG(0.9426675575074522, 0.6468699411595218, 4.944899201525582, 5.904478807658045)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Panthers/Distributions.xlsx
+++ b/Base/Teams/Panthers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(1.0825277216380726, 0.6597082740795139, 1.2527239139813011, 3.823068574113524)</t>
-  </si>
-  <si>
-    <t>NIG(1.584202046748575, 1.126339433689313, 3.9808944726008635, 6.2236109243199795)</t>
-  </si>
-  <si>
-    <t>JSU(-1.1100157718573849, 1.1378829585130164, -0.18288977667922973, 2.717279583370045)</t>
-  </si>
-  <si>
-    <t>NIG(0.9426675575074522, 0.6468699411595218, 4.944899201525582, 5.904478807658045)</t>
+    <t>NIG(1.092629183047433, 0.6757123593054357, 1.2104671275467238, 3.7924345806441857)</t>
+  </si>
+  <si>
+    <t>NIG(1.7288981085724426, 1.2400512705037015, 3.600629997067743, 6.303791028170348)</t>
+  </si>
+  <si>
+    <t>JSU(-1.0834270695418797, 1.1147815040763032, -0.09648624342902937, 2.6439773442607537)</t>
+  </si>
+  <si>
+    <t>JSU(-0.9462123012688848, 1.137637810872195, 3.48742340195479, 5.201982745315803)</t>
   </si>
 </sst>
 </file>
